--- a/biology/Zoologie/Echis/Echis.xlsx
+++ b/biology/Zoologie/Echis/Echis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echis est un genre de serpents de la famille des Viperidae[1]. Les espèces regroupées sous ce genre sont communément appelées Échide ou Vipère des pyramides.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echis est un genre de serpents de la famille des Viperidae. Les espèces regroupées sous ce genre sont communément appelées Échide ou Vipère des pyramides.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les onze espèces de ce genre se rencontrent au Moyen-Orient, dans le Nord et l'Est de l'Afrique, en Asie centrale et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les onze espèces de ce genre se rencontrent au Moyen-Orient, dans le Nord et l'Est de l'Afrique, en Asie centrale et en Asie du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents de taille moyenne qui dépassent rarement les 60 cm, mais peuvent frôler, dans de rares cas, le mètre de long. Ressemblant beaucoup aux vipères européennes, elles s'en distinguent principalement par la taille de leur tête et aussi la taille de leurs yeux, dont la grosseur laisse facilement voir la pupille verticale caractéristique des Viperidae.
 </t>
@@ -573,7 +589,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les échides sont réputées pour faire partie des serpents les plus dangereux du monde, non pas à cause de leur venin (lequel est souvent mortel notamment à cause de sa rapidité, mais est, en matière de toxicité, sans comparaison avec celui du Taïpan du désert ou des Mambas par exemple) mais à cause de la fréquence de leurs attaques (surtout chez l'espèce Echis carinatus). En effet, ces serpents vivent, à la différence d'autres espèces, proches des hommes, ce qui augmente les risques de morsure, d'autant que leur caractère est réputé pour être plutôt agressif. L'autre danger vient que ces vipères, de taille et de couleur souvent proches, n'ont pas toutes le même venin, ce qui peut rendre l'usage de sérum anti-venin inutile si on ignore quelle espèce précisément a mordu la victime.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 janvier 2014)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 janvier 2014) :
 Echis borkini Cherlin, 1990
 Echis carinatus (Schneider, 1801) — Échide carénée
 Echis coloratus Günther, 1878 Échide colorée
@@ -645,7 +665,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Merrem, 1820 : Versuch eines Systems der Amphibien I (Tentamen Systematis Amphibiorum). J. C. Krieger, Marburg, p. 1-191 (texte intégral).</t>
         </is>
